--- a/historico de consumo.xlsx
+++ b/historico de consumo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gec88\Downloads\GMT XSEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gec88\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{814C889B-DD23-45FB-854A-EA55BD7CA16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD593FE4-F741-4DB9-B641-81795F3C38CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E19EB4C-197B-40F0-9C2D-16B6EDD67097}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{8E19EB4C-197B-40F0-9C2D-16B6EDD67097}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
     <t>PONTA</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>F. PONTA</t>
+  </si>
+  <si>
+    <t>2023-2022</t>
   </si>
 </sst>
 </file>
@@ -178,35 +178,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,423 +542,423 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B3" s="4">
         <v>2786</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>705</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>363500</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>969.7</v>
       </c>
-      <c r="F3" s="6">
-        <v>800</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="F3" s="4">
+        <v>800</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H14" si="0">MAX(C3,F3)</f>
         <v>800</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I14" si="1">MAX(E3,G3)</f>
         <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>44136</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B4" s="4">
         <v>2658</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>684</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>397040</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1047.2</v>
       </c>
-      <c r="F4" s="6">
-        <v>800</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="F4" s="4">
+        <v>800</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I4" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>44105</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B5" s="4">
         <v>2396</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>421.4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>336560</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>1008</v>
       </c>
-      <c r="F5" s="6">
-        <v>800</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="F5" s="4">
+        <v>800</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>44075</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B6" s="4">
         <v>2240</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>370</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>332080</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>879.2</v>
       </c>
-      <c r="F6" s="6">
-        <v>800</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="F6" s="4">
+        <v>800</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>44044</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B7" s="4">
         <v>1680</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>330.4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>308560</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>935.2</v>
       </c>
-      <c r="F7" s="6">
-        <v>800</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="F7" s="4">
+        <v>800</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>44378</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="4">
         <v>3360</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>397.6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>308560</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>912.8</v>
       </c>
-      <c r="F8" s="6">
-        <v>800</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="F8" s="4">
+        <v>800</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>44348</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B9" s="4">
         <v>9520</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>828.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>353360</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>957.6</v>
       </c>
-      <c r="F9" s="6">
-        <v>800</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="4">
+        <v>800</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>828.8</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>44317</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B10" s="4">
         <v>9520</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>767.2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>349440</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>996.8</v>
       </c>
-      <c r="F10" s="6">
-        <v>800</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="F10" s="4">
+        <v>800</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>44287</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B11" s="4">
         <v>10640</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>789.6</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>392560</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>1058.4000000000001</v>
       </c>
-      <c r="F11" s="6">
-        <v>800</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="F11" s="4">
+        <v>800</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>44256</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B12" s="4">
         <v>34160</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>744.8</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>440160</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>996.8</v>
       </c>
-      <c r="F12" s="6">
-        <v>800</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="F12" s="4">
+        <v>800</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>44228</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B13" s="8">
         <v>30800</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>750</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>379120</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>974.4</v>
       </c>
-      <c r="F13" s="6">
-        <v>800</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="F13" s="4">
+        <v>800</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>44197</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="3">
+        <v>44929</v>
+      </c>
+      <c r="B14" s="8">
         <f>29865</f>
         <v>29865</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>741</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>368250</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>696.7</v>
       </c>
-      <c r="F14" s="6">
-        <v>800</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="4">
+        <v>800</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
